--- a/output/1Y_P66_KFSDIV.xlsx
+++ b/output/1Y_P66_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>13.3991</v>
       </c>
       <c r="C2" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D2" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>746.3188</v>
+        <v>744.829</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>13.5985</v>
       </c>
       <c r="C3" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D3" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E3" s="1">
-        <v>746.3188</v>
+        <v>744.829</v>
       </c>
       <c r="F3" s="1">
-        <v>735.3751999999999</v>
+        <v>733.9072</v>
       </c>
       <c r="H3" s="1">
-        <v>10148.816</v>
+        <v>10108.2981</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10148.816</v>
+        <v>10108.2981</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0149</v>
+        <v>0.0108</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>13.6955</v>
       </c>
       <c r="C4" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D4" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E4" s="1">
-        <v>1481.694</v>
+        <v>1478.7363</v>
       </c>
       <c r="F4" s="1">
-        <v>730.1668</v>
+        <v>728.7089</v>
       </c>
       <c r="H4" s="1">
-        <v>20292.5403</v>
+        <v>20211.5153</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20292.5403</v>
+        <v>20211.5153</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.4981</v>
+        <v>13.5251</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0071</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,46 +871,46 @@
         <v>13.3398</v>
       </c>
       <c r="C5" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D5" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E5" s="1">
-        <v>2211.8609</v>
+        <v>2207.4452</v>
       </c>
       <c r="F5" s="1">
-        <v>749.6364</v>
+        <v>748.139</v>
       </c>
       <c r="H5" s="1">
-        <v>29505.7814</v>
+        <v>29387.939</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29505.7814</v>
+        <v>29387.939</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.5632</v>
+        <v>13.5904</v>
       </c>
       <c r="M5" s="1">
         <v>0.3</v>
       </c>
       <c r="N5" s="1">
-        <v>400.0574</v>
+        <v>399.2588</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9599.9426</v>
+        <v>-9600.7412</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.026</v>
+        <v>-0.0273</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>12.8469</v>
       </c>
       <c r="C6" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D6" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E6" s="1">
-        <v>2961.4973</v>
+        <v>2955.5842</v>
       </c>
       <c r="F6" s="1">
-        <v>782.2904</v>
+        <v>780.7209</v>
       </c>
       <c r="H6" s="1">
-        <v>38046.0594</v>
+        <v>37894.1365</v>
       </c>
       <c r="I6" s="1">
-        <v>400.0574</v>
+        <v>399.2588</v>
       </c>
       <c r="J6" s="1">
-        <v>38446.1168</v>
+        <v>38293.3952</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.5067</v>
+        <v>13.5337</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10050.0072</v>
+        <v>-10049.9073</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0268</v>
+        <v>-0.0278</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>13.129</v>
       </c>
       <c r="C7" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D7" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E7" s="1">
-        <v>3743.7877</v>
+        <v>3736.3051</v>
       </c>
       <c r="F7" s="1">
-        <v>765.4815</v>
+        <v>763.9435999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>49152.1891</v>
+        <v>48955.6846</v>
       </c>
       <c r="I7" s="1">
-        <v>350.0502</v>
+        <v>349.3514</v>
       </c>
       <c r="J7" s="1">
-        <v>49502.2393</v>
+        <v>49305.0361</v>
       </c>
       <c r="K7" s="1">
-        <v>50050.0072</v>
+        <v>50049.9073</v>
       </c>
       <c r="L7" s="1">
-        <v>13.3688</v>
+        <v>13.3956</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10050.0072</v>
+        <v>-10049.9073</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0218</v>
+        <v>0.0209</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,46 +1021,46 @@
         <v>12.716</v>
       </c>
       <c r="C8" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D8" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E8" s="1">
-        <v>4509.2693</v>
+        <v>4500.2487</v>
       </c>
       <c r="F8" s="1">
-        <v>790.3434</v>
+        <v>788.7539</v>
       </c>
       <c r="H8" s="1">
-        <v>57339.868</v>
+        <v>57110.8561</v>
       </c>
       <c r="I8" s="1">
-        <v>300.043</v>
+        <v>299.4441</v>
       </c>
       <c r="J8" s="1">
-        <v>57639.9111</v>
+        <v>57410.3002</v>
       </c>
       <c r="K8" s="1">
-        <v>60100.0143</v>
+        <v>60099.8147</v>
       </c>
       <c r="L8" s="1">
-        <v>13.3281</v>
+        <v>13.3548</v>
       </c>
       <c r="M8" s="1">
         <v>0.3</v>
       </c>
       <c r="N8" s="1">
-        <v>1010.8227</v>
+        <v>1008.8024</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9039.184499999999</v>
+        <v>-9041.105</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0313</v>
+        <v>-0.0319</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>12.4613</v>
       </c>
       <c r="C9" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D9" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E9" s="1">
-        <v>5299.6127</v>
+        <v>5289.0026</v>
       </c>
       <c r="F9" s="1">
-        <v>822.7209</v>
+        <v>821.0333000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>66040.0638</v>
+        <v>65776.1514</v>
       </c>
       <c r="I9" s="1">
-        <v>1260.8585</v>
+        <v>1258.3391</v>
       </c>
       <c r="J9" s="1">
-        <v>67300.9224</v>
+        <v>67034.4905</v>
       </c>
       <c r="K9" s="1">
-        <v>70150.0215</v>
+        <v>70149.72199999999</v>
       </c>
       <c r="L9" s="1">
-        <v>13.2368</v>
+        <v>13.2633</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10252.1717</v>
+        <v>-10251.6678</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.005</v>
+        <v>-0.0056</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>12.6545</v>
       </c>
       <c r="C10" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D10" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E10" s="1">
-        <v>6122.3336</v>
+        <v>6110.0358</v>
       </c>
       <c r="F10" s="1">
-        <v>810.1602</v>
+        <v>808.4974999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>77475.0704</v>
+        <v>77164.8646</v>
       </c>
       <c r="I10" s="1">
-        <v>1008.6868</v>
+        <v>1006.6713</v>
       </c>
       <c r="J10" s="1">
-        <v>78483.75719999999</v>
+        <v>78171.5359</v>
       </c>
       <c r="K10" s="1">
-        <v>80402.19319999999</v>
+        <v>80401.38989999999</v>
       </c>
       <c r="L10" s="1">
-        <v>13.1326</v>
+        <v>13.1589</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10252.1717</v>
+        <v>-10251.6678</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0153</v>
+        <v>0.0148</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,46 +1171,46 @@
         <v>12.2345</v>
       </c>
       <c r="C11" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D11" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E11" s="1">
-        <v>6932.4937</v>
+        <v>6918.5334</v>
       </c>
       <c r="F11" s="1">
-        <v>837.9723</v>
+        <v>836.2565</v>
       </c>
       <c r="H11" s="1">
-        <v>84815.5947</v>
+        <v>84475.29240000001</v>
       </c>
       <c r="I11" s="1">
-        <v>756.5151</v>
+        <v>755.0035</v>
       </c>
       <c r="J11" s="1">
-        <v>85572.1099</v>
+        <v>85230.29580000001</v>
       </c>
       <c r="K11" s="1">
-        <v>90654.3649</v>
+        <v>90653.0577</v>
       </c>
       <c r="L11" s="1">
-        <v>13.0767</v>
+        <v>13.1029</v>
       </c>
       <c r="M11" s="1">
         <v>0.3</v>
       </c>
       <c r="N11" s="1">
-        <v>1653.0301</v>
+        <v>1649.7097</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8599.141600000001</v>
+        <v>-8601.9581</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0329</v>
+        <v>-0.0334</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>12.1636</v>
       </c>
       <c r="C12" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D12" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E12" s="1">
-        <v>7770.466</v>
+        <v>7754.7898</v>
       </c>
       <c r="F12" s="1">
-        <v>910.8066</v>
+        <v>908.8056</v>
       </c>
       <c r="H12" s="1">
-        <v>94516.8404</v>
+        <v>94137.72</v>
       </c>
       <c r="I12" s="1">
-        <v>2157.3735</v>
+        <v>2153.0453</v>
       </c>
       <c r="J12" s="1">
-        <v>96674.2139</v>
+        <v>96290.7653</v>
       </c>
       <c r="K12" s="1">
-        <v>100906.5366</v>
+        <v>100904.7255</v>
       </c>
       <c r="L12" s="1">
-        <v>12.9859</v>
+        <v>13.0119</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11078.6867</v>
+        <v>-11076.5227</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0115</v>
+        <v>0.0111</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>11.8145</v>
       </c>
       <c r="C13" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D13" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E13" s="1">
-        <v>8681.2726</v>
+        <v>8663.5954</v>
       </c>
       <c r="F13" s="1">
-        <v>937.7195</v>
+        <v>935.6594</v>
       </c>
       <c r="H13" s="1">
-        <v>102564.8949</v>
+        <v>102151.5872</v>
       </c>
       <c r="I13" s="1">
-        <v>1078.6867</v>
+        <v>1076.5227</v>
       </c>
       <c r="J13" s="1">
-        <v>103643.5816</v>
+        <v>103228.1098</v>
       </c>
       <c r="K13" s="1">
-        <v>111985.2234</v>
+        <v>111981.2482</v>
       </c>
       <c r="L13" s="1">
-        <v>12.8996</v>
+        <v>12.9255</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11078.6867</v>
+        <v>-11076.5227</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0284</v>
+        <v>-0.0288</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,46 +1321,46 @@
         <v>11.2352</v>
       </c>
       <c r="C14" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D14" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E14" s="1">
-        <v>9618.992099999999</v>
+        <v>9599.254800000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9618.992099999999</v>
+        <v>-9599.254800000001</v>
       </c>
       <c r="H14" s="1">
-        <v>108071.2995</v>
+        <v>107633.564</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>108071.2995</v>
+        <v>107633.564</v>
       </c>
       <c r="K14" s="1">
-        <v>123063.9101</v>
+        <v>123057.7708</v>
       </c>
       <c r="L14" s="1">
-        <v>12.7938</v>
+        <v>12.8195</v>
       </c>
       <c r="M14" s="1">
         <v>0.3</v>
       </c>
       <c r="N14" s="1">
-        <v>2343.9436</v>
+        <v>2339.1708</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>110415.2431</v>
+        <v>109972.7348</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.049</v>
+        <v>-0.0494</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>13.3991</v>
       </c>
       <c r="C2" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D2" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>746.3188</v>
+        <v>744.829</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>13.5985</v>
       </c>
       <c r="C3" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D3" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E3" s="1">
-        <v>746.3188</v>
+        <v>744.829</v>
       </c>
       <c r="F3" s="1">
-        <v>724.4317</v>
+        <v>728.8691</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10148.816</v>
+        <v>10108.2981</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10148.816</v>
+        <v>10108.2981</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9851.183999999999</v>
+        <v>-9931.3523</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0149</v>
+        <v>0.0108</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>13.6955</v>
       </c>
       <c r="C4" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D4" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E4" s="1">
-        <v>1470.7505</v>
+        <v>1473.6982</v>
       </c>
       <c r="F4" s="1">
-        <v>719.7501</v>
+        <v>721.1935999999999</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>20142.6628</v>
+        <v>20142.654</v>
       </c>
       <c r="I4" s="1">
-        <v>148.816</v>
+        <v>68.6477</v>
       </c>
       <c r="J4" s="1">
-        <v>20291.4788</v>
+        <v>20211.3016</v>
       </c>
       <c r="K4" s="1">
-        <v>19851.184</v>
+        <v>19931.3523</v>
       </c>
       <c r="L4" s="1">
-        <v>13.4973</v>
+        <v>13.5247</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9857.3372</v>
+        <v>-9896.867399999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0071</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,49 +1609,49 @@
         <v>13.3398</v>
       </c>
       <c r="C5" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D5" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E5" s="1">
-        <v>2190.5005</v>
+        <v>2194.8918</v>
       </c>
       <c r="F5" s="1">
-        <v>771.4867</v>
+        <v>760.9906</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>29220.839</v>
+        <v>29220.8134</v>
       </c>
       <c r="I5" s="1">
-        <v>291.4788</v>
+        <v>171.7802</v>
       </c>
       <c r="J5" s="1">
-        <v>29512.3177</v>
+        <v>29392.5937</v>
       </c>
       <c r="K5" s="1">
-        <v>29708.5212</v>
+        <v>29828.2198</v>
       </c>
       <c r="L5" s="1">
-        <v>13.5624</v>
+        <v>13.5898</v>
       </c>
       <c r="M5" s="1">
         <v>0.3</v>
       </c>
       <c r="N5" s="1">
-        <v>397.1026</v>
+        <v>397.8985</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9894.376099999999</v>
+        <v>-9773.8817</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0257</v>
+        <v>-0.0271</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>12.8469</v>
       </c>
       <c r="C6" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D6" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E6" s="1">
-        <v>2961.9873</v>
+        <v>2955.8823</v>
       </c>
       <c r="F6" s="1">
-        <v>809.3083</v>
+        <v>807.7542999999999</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>38052.3542</v>
+        <v>37897.9583</v>
       </c>
       <c r="I6" s="1">
-        <v>397.1026</v>
+        <v>397.8985</v>
       </c>
       <c r="J6" s="1">
-        <v>38449.4568</v>
+        <v>38295.8568</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.5044</v>
+        <v>13.5323</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10397.1026</v>
+        <v>-10397.8985</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0269</v>
+        <v>-0.0278</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>13.129</v>
       </c>
       <c r="C7" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D7" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E7" s="1">
-        <v>3771.2956</v>
+        <v>3763.6366</v>
       </c>
       <c r="F7" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>49513.3393</v>
+        <v>49313.8019</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>49513.3393</v>
+        <v>49313.8019</v>
       </c>
       <c r="K7" s="1">
-        <v>50397.1026</v>
+        <v>50397.8985</v>
       </c>
       <c r="L7" s="1">
-        <v>13.3633</v>
+        <v>13.3907</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.022</v>
+        <v>0.0211</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,49 +1768,49 @@
         <v>12.716</v>
       </c>
       <c r="C8" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D8" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E8" s="1">
-        <v>4532.9682</v>
+        <v>4523.7865</v>
       </c>
       <c r="F8" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>57641.2234</v>
+        <v>57409.5656</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>57641.2234</v>
+        <v>57409.5656</v>
       </c>
       <c r="K8" s="1">
-        <v>60397.1026</v>
+        <v>60397.8985</v>
       </c>
       <c r="L8" s="1">
-        <v>13.324</v>
+        <v>13.3512</v>
       </c>
       <c r="M8" s="1">
         <v>0.3</v>
       </c>
       <c r="N8" s="1">
-        <v>1018.2498</v>
+        <v>1016.1819</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8981.7502</v>
+        <v>-8983.8181</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0315</v>
+        <v>-0.0321</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>12.4613</v>
       </c>
       <c r="C9" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D9" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E9" s="1">
-        <v>5319.379</v>
+        <v>5308.6235</v>
       </c>
       <c r="F9" s="1">
-        <v>884.1975</v>
+        <v>882.2615</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>66286.37760000001</v>
+        <v>66020.16529999999</v>
       </c>
       <c r="I9" s="1">
-        <v>1018.2498</v>
+        <v>1016.1819</v>
       </c>
       <c r="J9" s="1">
-        <v>67304.6274</v>
+        <v>67036.3472</v>
       </c>
       <c r="K9" s="1">
-        <v>70397.1026</v>
+        <v>70397.8985</v>
       </c>
       <c r="L9" s="1">
-        <v>13.2341</v>
+        <v>13.261</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11018.2498</v>
+        <v>-11016.1819</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.005</v>
+        <v>-0.0055</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>12.6545</v>
       </c>
       <c r="C10" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D10" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E10" s="1">
-        <v>6203.5765</v>
+        <v>6190.885</v>
       </c>
       <c r="F10" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>78503.1584</v>
+        <v>78185.925</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>78503.1584</v>
+        <v>78185.925</v>
       </c>
       <c r="K10" s="1">
-        <v>81415.3524</v>
+        <v>81414.08040000001</v>
       </c>
       <c r="L10" s="1">
-        <v>13.1239</v>
+        <v>13.1506</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1916,7 +1916,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0155</v>
+        <v>0.0149</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,49 +1927,49 @@
         <v>12.2345</v>
       </c>
       <c r="C11" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D11" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E11" s="1">
-        <v>6993.8092</v>
+        <v>6979.5348</v>
       </c>
       <c r="F11" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>85565.7585</v>
+        <v>85220.1195</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>85565.7585</v>
+        <v>85220.1195</v>
       </c>
       <c r="K11" s="1">
-        <v>91415.3524</v>
+        <v>91414.08040000001</v>
       </c>
       <c r="L11" s="1">
-        <v>13.0709</v>
+        <v>13.0974</v>
       </c>
       <c r="M11" s="1">
         <v>0.3</v>
       </c>
       <c r="N11" s="1">
-        <v>1674.9656</v>
+        <v>1671.539</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8325.0344</v>
+        <v>-8328.460999999999</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0332</v>
+        <v>-0.0336</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>12.1636</v>
       </c>
       <c r="C12" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D12" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E12" s="1">
-        <v>7811.1699</v>
+        <v>7795.262</v>
       </c>
       <c r="F12" s="1">
-        <v>959.8280999999999</v>
+        <v>957.6254</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>95011.9466</v>
+        <v>94629.0238</v>
       </c>
       <c r="I12" s="1">
-        <v>1674.9656</v>
+        <v>1671.539</v>
       </c>
       <c r="J12" s="1">
-        <v>96686.91220000001</v>
+        <v>96300.56269999999</v>
       </c>
       <c r="K12" s="1">
-        <v>101415.3524</v>
+        <v>101414.0804</v>
       </c>
       <c r="L12" s="1">
-        <v>12.9834</v>
+        <v>13.0097</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11674.9656</v>
+        <v>-11671.539</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0117</v>
+        <v>0.0113</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>11.8145</v>
       </c>
       <c r="C13" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D13" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E13" s="1">
-        <v>8770.998100000001</v>
+        <v>8752.8874</v>
       </c>
       <c r="F13" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>103624.9568</v>
+        <v>103204.4204</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>103624.9568</v>
+        <v>103204.4204</v>
       </c>
       <c r="K13" s="1">
-        <v>113090.3181</v>
+        <v>113085.6194</v>
       </c>
       <c r="L13" s="1">
-        <v>12.8937</v>
+        <v>12.9198</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0287</v>
+        <v>-0.0291</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,49 +2086,49 @@
         <v>11.2352</v>
       </c>
       <c r="C14" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D14" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E14" s="1">
-        <v>9617.4156</v>
+        <v>9597.6104</v>
       </c>
       <c r="F14" s="1">
-        <v>-9617.4156</v>
+        <v>-9597.6104</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>108053.5879</v>
+        <v>107615.1266</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>108053.5879</v>
+        <v>107615.1266</v>
       </c>
       <c r="K14" s="1">
-        <v>123090.3181</v>
+        <v>123085.6194</v>
       </c>
       <c r="L14" s="1">
-        <v>12.7987</v>
+        <v>12.8246</v>
       </c>
       <c r="M14" s="1">
         <v>0.3</v>
       </c>
       <c r="N14" s="1">
-        <v>2368.1695</v>
+        <v>2363.2796</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>110421.7574</v>
+        <v>109978.4063</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.049</v>
+        <v>-0.0494</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>13.3991</v>
       </c>
       <c r="C2" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D2" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>746.3188</v>
+        <v>744.829</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>13.5985</v>
       </c>
       <c r="C3" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D3" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E3" s="1">
-        <v>746.3188</v>
+        <v>744.829</v>
       </c>
       <c r="F3" s="1">
-        <v>728.1085</v>
+        <v>732.5534</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10148.816</v>
+        <v>10108.2981</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10148.816</v>
+        <v>10108.2981</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9901.183999999999</v>
+        <v>-9981.552799999999</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0149</v>
+        <v>0.0108</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>13.6955</v>
       </c>
       <c r="C4" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D4" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E4" s="1">
-        <v>1474.4273</v>
+        <v>1477.3824</v>
       </c>
       <c r="F4" s="1">
-        <v>727.044</v>
+        <v>728.5021</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20193.0195</v>
+        <v>20193.0106</v>
       </c>
       <c r="I4" s="1">
-        <v>98.816</v>
+        <v>18.4472</v>
       </c>
       <c r="J4" s="1">
-        <v>20291.8354</v>
+        <v>20211.4579</v>
       </c>
       <c r="K4" s="1">
-        <v>19901.184</v>
+        <v>19981.5528</v>
       </c>
       <c r="L4" s="1">
-        <v>13.4976</v>
+        <v>13.525</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9957.2305</v>
+        <v>-9997.1613</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0071</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,49 +2377,49 @@
         <v>13.3398</v>
       </c>
       <c r="C5" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D5" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E5" s="1">
-        <v>2201.4713</v>
+        <v>2205.8845</v>
       </c>
       <c r="F5" s="1">
-        <v>760.2501999999999</v>
+        <v>749.7315</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>29367.1867</v>
+        <v>29367.161</v>
       </c>
       <c r="I5" s="1">
-        <v>141.5854</v>
+        <v>21.2859</v>
       </c>
       <c r="J5" s="1">
-        <v>29508.7721</v>
+        <v>29388.4469</v>
       </c>
       <c r="K5" s="1">
-        <v>29858.4146</v>
+        <v>29978.7141</v>
       </c>
       <c r="L5" s="1">
-        <v>13.5629</v>
+        <v>13.5903</v>
       </c>
       <c r="M5" s="1">
         <v>0.3</v>
       </c>
       <c r="N5" s="1">
-        <v>398.0954</v>
+        <v>398.8933</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9743.49</v>
+        <v>-9622.3927</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0259</v>
+        <v>-0.0272</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>12.8469</v>
       </c>
       <c r="C6" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D6" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E6" s="1">
-        <v>2961.7215</v>
+        <v>2955.616</v>
       </c>
       <c r="F6" s="1">
-        <v>809.3856</v>
+        <v>807.8316</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>38048.9396</v>
+        <v>37894.5438</v>
       </c>
       <c r="I6" s="1">
-        <v>398.0954</v>
+        <v>398.8933</v>
       </c>
       <c r="J6" s="1">
-        <v>38447.0349</v>
+        <v>38293.437</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.5057</v>
+        <v>13.5336</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10398.0954</v>
+        <v>-10398.8933</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0269</v>
+        <v>-0.0278</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>13.129</v>
       </c>
       <c r="C7" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D7" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E7" s="1">
-        <v>3771.107</v>
+        <v>3763.4476</v>
       </c>
       <c r="F7" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>49510.8642</v>
+        <v>49311.325</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>49510.8642</v>
+        <v>49311.325</v>
       </c>
       <c r="K7" s="1">
-        <v>50398.0954</v>
+        <v>50398.8933</v>
       </c>
       <c r="L7" s="1">
-        <v>13.3643</v>
+        <v>13.3917</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2525,7 +2525,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.022</v>
+        <v>0.0211</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,49 +2536,49 @@
         <v>12.716</v>
       </c>
       <c r="C8" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D8" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E8" s="1">
-        <v>4532.7797</v>
+        <v>4523.5975</v>
       </c>
       <c r="F8" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>57638.8262</v>
+        <v>57407.1666</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>57638.8262</v>
+        <v>57407.1666</v>
       </c>
       <c r="K8" s="1">
-        <v>60398.0954</v>
+        <v>60398.8933</v>
       </c>
       <c r="L8" s="1">
-        <v>13.3247</v>
+        <v>13.352</v>
       </c>
       <c r="M8" s="1">
         <v>0.3</v>
       </c>
       <c r="N8" s="1">
-        <v>1018.1989</v>
+        <v>1016.1309</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8981.801100000001</v>
+        <v>-8983.8691</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0315</v>
+        <v>-0.0321</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>12.4613</v>
       </c>
       <c r="C9" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D9" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E9" s="1">
-        <v>5319.1905</v>
+        <v>5308.4345</v>
       </c>
       <c r="F9" s="1">
-        <v>884.1934</v>
+        <v>882.2574</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>66284.0284</v>
+        <v>66017.8143</v>
       </c>
       <c r="I9" s="1">
-        <v>1018.1989</v>
+        <v>1016.1309</v>
       </c>
       <c r="J9" s="1">
-        <v>67302.2273</v>
+        <v>67033.9452</v>
       </c>
       <c r="K9" s="1">
-        <v>70398.09540000001</v>
+        <v>70398.8933</v>
       </c>
       <c r="L9" s="1">
-        <v>13.2347</v>
+        <v>13.2617</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11018.1989</v>
+        <v>-11016.1309</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.005</v>
+        <v>-0.0055</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>12.6545</v>
       </c>
       <c r="C10" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D10" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E10" s="1">
-        <v>6203.3839</v>
+        <v>6190.6919</v>
       </c>
       <c r="F10" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>78500.7211</v>
+        <v>78183.4859</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>78500.7211</v>
+        <v>78183.4859</v>
       </c>
       <c r="K10" s="1">
-        <v>81416.29429999999</v>
+        <v>81415.0241</v>
       </c>
       <c r="L10" s="1">
-        <v>13.1245</v>
+        <v>13.1512</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0155</v>
+        <v>0.0149</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,49 +2695,49 @@
         <v>12.2345</v>
       </c>
       <c r="C11" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D11" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E11" s="1">
-        <v>6993.6166</v>
+        <v>6979.3416</v>
       </c>
       <c r="F11" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>85563.40210000001</v>
+        <v>85217.7614</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>85563.40210000001</v>
+        <v>85217.7614</v>
       </c>
       <c r="K11" s="1">
-        <v>91416.29429999999</v>
+        <v>91415.0241</v>
       </c>
       <c r="L11" s="1">
-        <v>13.0714</v>
+        <v>13.0979</v>
       </c>
       <c r="M11" s="1">
         <v>0.3</v>
       </c>
       <c r="N11" s="1">
-        <v>1674.9136</v>
+        <v>1671.4868</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8325.0864</v>
+        <v>-8328.513199999999</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0332</v>
+        <v>-0.0336</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>12.1636</v>
       </c>
       <c r="C12" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D12" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E12" s="1">
-        <v>7810.9773</v>
+        <v>7795.0689</v>
       </c>
       <c r="F12" s="1">
-        <v>959.8239</v>
+        <v>957.6212</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>95009.6038</v>
+        <v>94626.67939999999</v>
       </c>
       <c r="I12" s="1">
-        <v>1674.9136</v>
+        <v>1671.4868</v>
       </c>
       <c r="J12" s="1">
-        <v>96684.5175</v>
+        <v>96298.16620000001</v>
       </c>
       <c r="K12" s="1">
-        <v>101416.2943</v>
+        <v>101415.0241</v>
       </c>
       <c r="L12" s="1">
-        <v>12.9838</v>
+        <v>13.0102</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11674.9136</v>
+        <v>-11671.4868</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0117</v>
+        <v>0.0113</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>11.8145</v>
       </c>
       <c r="C13" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D13" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E13" s="1">
-        <v>8770.8012</v>
+        <v>8752.690000000001</v>
       </c>
       <c r="F13" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>103622.6308</v>
+        <v>103202.0928</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>103622.6308</v>
+        <v>103202.0928</v>
       </c>
       <c r="K13" s="1">
-        <v>113091.2079</v>
+        <v>113086.5109</v>
       </c>
       <c r="L13" s="1">
-        <v>12.8941</v>
+        <v>12.9202</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0287</v>
+        <v>-0.0291</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,49 +2854,49 @@
         <v>11.2352</v>
       </c>
       <c r="C14" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D14" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E14" s="1">
-        <v>9617.218699999999</v>
+        <v>9597.413</v>
       </c>
       <c r="F14" s="1">
-        <v>-9617.218699999999</v>
+        <v>-9597.413</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>108051.376</v>
+        <v>107612.9132</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>108051.376</v>
+        <v>107612.9132</v>
       </c>
       <c r="K14" s="1">
-        <v>123091.2079</v>
+        <v>123086.5109</v>
       </c>
       <c r="L14" s="1">
-        <v>12.799</v>
+        <v>12.825</v>
       </c>
       <c r="M14" s="1">
         <v>0.3</v>
       </c>
       <c r="N14" s="1">
-        <v>2368.1163</v>
+        <v>2363.2263</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>110419.4923</v>
+        <v>109976.1395</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.049</v>
+        <v>-0.0494</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>13.3991</v>
       </c>
       <c r="C2" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D2" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>746.3188</v>
+        <v>744.829</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>13.5985</v>
       </c>
       <c r="C3" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D3" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E3" s="1">
-        <v>746.3188</v>
+        <v>744.829</v>
       </c>
       <c r="F3" s="1">
-        <v>731.7854</v>
+        <v>736.2376</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10148.816</v>
+        <v>10108.2981</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10148.816</v>
+        <v>10108.2981</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9951.183999999999</v>
+        <v>-10031.7532</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0149</v>
+        <v>0.0108</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>13.6955</v>
       </c>
       <c r="C4" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D4" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E4" s="1">
-        <v>1478.1042</v>
+        <v>1481.0667</v>
       </c>
       <c r="F4" s="1">
-        <v>733.7311999999999</v>
+        <v>726.3951</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>20243.3761</v>
+        <v>20243.3673</v>
       </c>
       <c r="I4" s="1">
-        <v>48.816</v>
+        <v>-31.7532</v>
       </c>
       <c r="J4" s="1">
-        <v>20292.1921</v>
+        <v>20211.6141</v>
       </c>
       <c r="K4" s="1">
-        <v>19951.184</v>
+        <v>20031.7532</v>
       </c>
       <c r="L4" s="1">
-        <v>13.4978</v>
+        <v>13.5252</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10048.816</v>
+        <v>-9968.246800000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0071</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,49 +3145,49 @@
         <v>13.3398</v>
       </c>
       <c r="C5" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D5" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E5" s="1">
-        <v>2211.8354</v>
+        <v>2207.4617</v>
       </c>
       <c r="F5" s="1">
-        <v>749.6364</v>
+        <v>748.139</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>29505.4422</v>
+        <v>29388.1587</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29505.4422</v>
+        <v>29388.1587</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.5634</v>
+        <v>13.5903</v>
       </c>
       <c r="M5" s="1">
         <v>0.3</v>
       </c>
       <c r="N5" s="1">
-        <v>399.0881</v>
+        <v>399.888</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9600.911899999999</v>
+        <v>-9600.111999999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.026</v>
+        <v>-0.0273</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>12.8469</v>
       </c>
       <c r="C6" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D6" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E6" s="1">
-        <v>2961.4719</v>
+        <v>2955.6007</v>
       </c>
       <c r="F6" s="1">
-        <v>809.4628</v>
+        <v>807.9089</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>38045.7327</v>
+        <v>37894.3481</v>
       </c>
       <c r="I6" s="1">
-        <v>399.0881</v>
+        <v>399.888</v>
       </c>
       <c r="J6" s="1">
-        <v>38444.8209</v>
+        <v>38294.2361</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.5068</v>
+        <v>13.5336</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10399.0881</v>
+        <v>-10399.888</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0268</v>
+        <v>-0.0278</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>13.129</v>
       </c>
       <c r="C7" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D7" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E7" s="1">
-        <v>3770.9347</v>
+        <v>3763.5096</v>
       </c>
       <c r="F7" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>49508.6015</v>
+        <v>49312.1375</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>49508.6015</v>
+        <v>49312.1375</v>
       </c>
       <c r="K7" s="1">
-        <v>50399.0881</v>
+        <v>50399.888</v>
       </c>
       <c r="L7" s="1">
-        <v>13.3651</v>
+        <v>13.3917</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.022</v>
+        <v>0.0211</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,49 +3304,49 @@
         <v>12.716</v>
       </c>
       <c r="C8" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D8" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E8" s="1">
-        <v>4532.6073</v>
+        <v>4523.6595</v>
       </c>
       <c r="F8" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>57636.6347</v>
+        <v>57407.9535</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>57636.6347</v>
+        <v>57407.9535</v>
       </c>
       <c r="K8" s="1">
-        <v>60399.0881</v>
+        <v>60399.888</v>
       </c>
       <c r="L8" s="1">
-        <v>13.3255</v>
+        <v>13.352</v>
       </c>
       <c r="M8" s="1">
         <v>0.3</v>
       </c>
       <c r="N8" s="1">
-        <v>1018.1524</v>
+        <v>1016.1476</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8981.847599999999</v>
+        <v>-8983.8524</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0315</v>
+        <v>-0.0321</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>12.4613</v>
       </c>
       <c r="C9" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D9" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E9" s="1">
-        <v>5319.0181</v>
+        <v>5308.4965</v>
       </c>
       <c r="F9" s="1">
-        <v>884.1896</v>
+        <v>882.2588</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>66281.8808</v>
+        <v>66018.5855</v>
       </c>
       <c r="I9" s="1">
-        <v>1018.1524</v>
+        <v>1016.1476</v>
       </c>
       <c r="J9" s="1">
-        <v>67300.03320000001</v>
+        <v>67034.7331</v>
       </c>
       <c r="K9" s="1">
-        <v>70399.08809999999</v>
+        <v>70399.88800000001</v>
       </c>
       <c r="L9" s="1">
-        <v>13.2354</v>
+        <v>13.2617</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11018.1524</v>
+        <v>-11016.1476</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.005</v>
+        <v>-0.0055</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>12.6545</v>
       </c>
       <c r="C10" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D10" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E10" s="1">
-        <v>6203.2078</v>
+        <v>6190.7552</v>
       </c>
       <c r="F10" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>78498.4929</v>
+        <v>78184.28599999999</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>78498.4929</v>
+        <v>78184.28599999999</v>
       </c>
       <c r="K10" s="1">
-        <v>81417.2405</v>
+        <v>81416.0356</v>
       </c>
       <c r="L10" s="1">
-        <v>13.125</v>
+        <v>13.1512</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3452,7 +3452,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0155</v>
+        <v>0.0149</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,49 +3463,49 @@
         <v>12.2345</v>
       </c>
       <c r="C11" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D11" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E11" s="1">
-        <v>6993.4405</v>
+        <v>6979.405</v>
       </c>
       <c r="F11" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>85561.2479</v>
+        <v>85218.5349</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>85561.2479</v>
+        <v>85218.5349</v>
       </c>
       <c r="K11" s="1">
-        <v>91417.2405</v>
+        <v>91416.0356</v>
       </c>
       <c r="L11" s="1">
-        <v>13.0719</v>
+        <v>13.098</v>
       </c>
       <c r="M11" s="1">
         <v>0.3</v>
       </c>
       <c r="N11" s="1">
-        <v>1674.8661</v>
+        <v>1671.5039</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8325.133900000001</v>
+        <v>-8328.4961</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0332</v>
+        <v>-0.0336</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>12.1636</v>
       </c>
       <c r="C12" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D12" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E12" s="1">
-        <v>7810.8013</v>
+        <v>7795.1322</v>
       </c>
       <c r="F12" s="1">
-        <v>959.8200000000001</v>
+        <v>957.6226</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>95007.4621</v>
+        <v>94627.44839999999</v>
       </c>
       <c r="I12" s="1">
-        <v>1674.8661</v>
+        <v>1671.5039</v>
       </c>
       <c r="J12" s="1">
-        <v>96682.3282</v>
+        <v>96298.95239999999</v>
       </c>
       <c r="K12" s="1">
-        <v>101417.2405</v>
+        <v>101416.0356</v>
       </c>
       <c r="L12" s="1">
-        <v>12.9842</v>
+        <v>13.0102</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11674.8661</v>
+        <v>-11671.5039</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0117</v>
+        <v>0.0113</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>11.8145</v>
       </c>
       <c r="C13" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D13" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E13" s="1">
-        <v>8770.6212</v>
+        <v>8752.754800000001</v>
       </c>
       <c r="F13" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>103620.5043</v>
+        <v>103202.8564</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>103620.5043</v>
+        <v>103202.8564</v>
       </c>
       <c r="K13" s="1">
-        <v>113092.1066</v>
+        <v>113087.5395</v>
       </c>
       <c r="L13" s="1">
-        <v>12.8944</v>
+        <v>12.9202</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3611,7 +3611,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0287</v>
+        <v>-0.0291</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,49 +3622,49 @@
         <v>11.2352</v>
       </c>
       <c r="C14" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D14" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E14" s="1">
-        <v>9617.0388</v>
+        <v>9597.477800000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9617.0388</v>
+        <v>-9597.477800000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>108049.3538</v>
+        <v>107613.6393</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>108049.3538</v>
+        <v>107613.6393</v>
       </c>
       <c r="K14" s="1">
-        <v>123092.1066</v>
+        <v>123087.5395</v>
       </c>
       <c r="L14" s="1">
-        <v>12.7994</v>
+        <v>12.825</v>
       </c>
       <c r="M14" s="1">
         <v>0.3</v>
       </c>
       <c r="N14" s="1">
-        <v>2368.0677</v>
+        <v>2363.2438</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>110417.4215</v>
+        <v>109976.8831</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.049</v>
+        <v>-0.0494</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>13.3991</v>
       </c>
       <c r="C2" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D2" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>746.3188</v>
+        <v>744.829</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>13.5985</v>
       </c>
       <c r="C3" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D3" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E3" s="1">
-        <v>746.3188</v>
+        <v>744.829</v>
       </c>
       <c r="F3" s="1">
-        <v>735.3751999999999</v>
+        <v>733.9072</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10148.816</v>
+        <v>10108.2981</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10148.816</v>
+        <v>10108.2981</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0149</v>
+        <v>0.0108</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>13.6955</v>
       </c>
       <c r="C4" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D4" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E4" s="1">
-        <v>1481.694</v>
+        <v>1478.7363</v>
       </c>
       <c r="F4" s="1">
-        <v>730.1668</v>
+        <v>728.7089</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20292.5403</v>
+        <v>20211.5153</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20292.5403</v>
+        <v>20211.5153</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.4981</v>
+        <v>13.5251</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0071</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,49 +3913,49 @@
         <v>13.3398</v>
       </c>
       <c r="C5" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D5" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E5" s="1">
-        <v>2211.8609</v>
+        <v>2207.4452</v>
       </c>
       <c r="F5" s="1">
-        <v>749.6364</v>
+        <v>748.139</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>29505.7814</v>
+        <v>29387.939</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29505.7814</v>
+        <v>29387.939</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.5632</v>
+        <v>13.5904</v>
       </c>
       <c r="M5" s="1">
         <v>0.3</v>
       </c>
       <c r="N5" s="1">
-        <v>400.0574</v>
+        <v>399.2588</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9599.9426</v>
+        <v>-9600.7412</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.026</v>
+        <v>-0.0273</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>12.8469</v>
       </c>
       <c r="C6" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D6" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E6" s="1">
-        <v>2961.4973</v>
+        <v>2955.5842</v>
       </c>
       <c r="F6" s="1">
-        <v>809.5383</v>
+        <v>807.86</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>38046.0594</v>
+        <v>37894.1365</v>
       </c>
       <c r="I6" s="1">
-        <v>400.0574</v>
+        <v>399.2588</v>
       </c>
       <c r="J6" s="1">
-        <v>38446.1168</v>
+        <v>38293.3952</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.5067</v>
+        <v>13.5337</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10400.0574</v>
+        <v>-10399.2588</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0268</v>
+        <v>-0.0278</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>13.129</v>
       </c>
       <c r="C7" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D7" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E7" s="1">
-        <v>3771.0356</v>
+        <v>3763.4442</v>
       </c>
       <c r="F7" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>49509.9259</v>
+        <v>49311.2808</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>49509.9259</v>
+        <v>49311.2808</v>
       </c>
       <c r="K7" s="1">
-        <v>50400.0574</v>
+        <v>50399.2588</v>
       </c>
       <c r="L7" s="1">
-        <v>13.365</v>
+        <v>13.3918</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.022</v>
+        <v>0.0211</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,49 +4072,49 @@
         <v>12.716</v>
       </c>
       <c r="C8" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D8" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E8" s="1">
-        <v>4532.7082</v>
+        <v>4523.5941</v>
       </c>
       <c r="F8" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>57637.9174</v>
+        <v>57407.1238</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>57637.9174</v>
+        <v>57407.1238</v>
       </c>
       <c r="K8" s="1">
-        <v>60400.0574</v>
+        <v>60399.2588</v>
       </c>
       <c r="L8" s="1">
-        <v>13.3254</v>
+        <v>13.3521</v>
       </c>
       <c r="M8" s="1">
         <v>0.3</v>
       </c>
       <c r="N8" s="1">
-        <v>1018.1796</v>
+        <v>1016.1299</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8981.820400000001</v>
+        <v>-8983.8701</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0315</v>
+        <v>-0.0321</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>12.4613</v>
       </c>
       <c r="C9" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D9" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E9" s="1">
-        <v>5319.119</v>
+        <v>5308.4311</v>
       </c>
       <c r="F9" s="1">
-        <v>884.1917999999999</v>
+        <v>882.2573</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>66283.1378</v>
+        <v>66017.7724</v>
       </c>
       <c r="I9" s="1">
-        <v>1018.1796</v>
+        <v>1016.1299</v>
       </c>
       <c r="J9" s="1">
-        <v>67301.3174</v>
+        <v>67033.9023</v>
       </c>
       <c r="K9" s="1">
-        <v>70400.05740000001</v>
+        <v>70399.2588</v>
       </c>
       <c r="L9" s="1">
-        <v>13.2353</v>
+        <v>13.2618</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11018.1796</v>
+        <v>-11016.1299</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.005</v>
+        <v>-0.0055</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>12.6545</v>
       </c>
       <c r="C10" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D10" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E10" s="1">
-        <v>6203.3108</v>
+        <v>6190.6884</v>
       </c>
       <c r="F10" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>78499.79700000001</v>
+        <v>78183.4424</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>78499.79700000001</v>
+        <v>78183.4424</v>
       </c>
       <c r="K10" s="1">
-        <v>81418.23699999999</v>
+        <v>81415.3887</v>
       </c>
       <c r="L10" s="1">
-        <v>13.125</v>
+        <v>13.1513</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4220,7 +4220,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0155</v>
+        <v>0.0149</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,49 +4231,49 @@
         <v>12.2345</v>
       </c>
       <c r="C11" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D11" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E11" s="1">
-        <v>6993.5436</v>
+        <v>6979.3382</v>
       </c>
       <c r="F11" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>85562.50870000001</v>
+        <v>85217.7193</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>85562.50870000001</v>
+        <v>85217.7193</v>
       </c>
       <c r="K11" s="1">
-        <v>91418.23699999999</v>
+        <v>91415.3887</v>
       </c>
       <c r="L11" s="1">
-        <v>13.0718</v>
+        <v>13.098</v>
       </c>
       <c r="M11" s="1">
         <v>0.3</v>
       </c>
       <c r="N11" s="1">
-        <v>1674.8939</v>
+        <v>1671.4859</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8325.106100000001</v>
+        <v>-8328.5141</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0332</v>
+        <v>-0.0336</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>12.1636</v>
       </c>
       <c r="C12" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D12" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E12" s="1">
-        <v>7810.9043</v>
+        <v>7795.0654</v>
       </c>
       <c r="F12" s="1">
-        <v>959.8223</v>
+        <v>957.6211</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>95008.7156</v>
+        <v>94626.6375</v>
       </c>
       <c r="I12" s="1">
-        <v>1674.8939</v>
+        <v>1671.4859</v>
       </c>
       <c r="J12" s="1">
-        <v>96683.6096</v>
+        <v>96298.1234</v>
       </c>
       <c r="K12" s="1">
-        <v>101418.237</v>
+        <v>101415.3887</v>
       </c>
       <c r="L12" s="1">
-        <v>12.9842</v>
+        <v>13.0102</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11674.8939</v>
+        <v>-11671.4859</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0117</v>
+        <v>0.0113</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>11.8145</v>
       </c>
       <c r="C13" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D13" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E13" s="1">
-        <v>8770.7266</v>
+        <v>8752.6865</v>
       </c>
       <c r="F13" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>103621.7489</v>
+        <v>103202.0513</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>103621.7489</v>
+        <v>103202.0513</v>
       </c>
       <c r="K13" s="1">
-        <v>113093.1309</v>
+        <v>113086.8746</v>
       </c>
       <c r="L13" s="1">
-        <v>12.8944</v>
+        <v>12.9202</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0287</v>
+        <v>-0.0291</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,49 +4390,49 @@
         <v>11.2352</v>
       </c>
       <c r="C14" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D14" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E14" s="1">
-        <v>9617.1441</v>
+        <v>9597.4095</v>
       </c>
       <c r="F14" s="1">
-        <v>-9617.1441</v>
+        <v>-9597.4095</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>108050.5373</v>
+        <v>107612.8737</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>108050.5373</v>
+        <v>107612.8737</v>
       </c>
       <c r="K14" s="1">
-        <v>123093.1309</v>
+        <v>123086.8746</v>
       </c>
       <c r="L14" s="1">
-        <v>12.7993</v>
+        <v>12.825</v>
       </c>
       <c r="M14" s="1">
         <v>0.3</v>
       </c>
       <c r="N14" s="1">
-        <v>2368.0962</v>
+        <v>2363.2254</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>110418.6335</v>
+        <v>109976.0991</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.049</v>
+        <v>-0.0494</v>
       </c>
     </row>
   </sheetData>
@@ -4451,10 +4451,10 @@
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>12.7938</v>
+        <v>12.8195</v>
       </c>
       <c r="D3" s="1">
-        <v>12.7987</v>
+        <v>12.8246</v>
       </c>
       <c r="E3" s="1">
-        <v>12.799</v>
+        <v>12.825</v>
       </c>
       <c r="F3" s="1">
-        <v>12.7994</v>
+        <v>12.825</v>
       </c>
       <c r="G3" s="1">
-        <v>12.7993</v>
+        <v>12.825</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.1716</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.1288</v>
+        <v>-0.1413</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.1288</v>
+        <v>-0.1414</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.1289</v>
+        <v>-0.1415</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.129</v>
+        <v>-0.1415</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.1289</v>
+        <v>-0.1415</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.0796</v>
       </c>
       <c r="C5" s="3">
-        <v>0.08019999999999999</v>
+        <v>0.0788</v>
       </c>
       <c r="D5" s="3">
-        <v>0.0805</v>
+        <v>0.0791</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0805</v>
+        <v>0.0791</v>
       </c>
       <c r="F5" s="3">
-        <v>0.0805</v>
+        <v>0.0791</v>
       </c>
       <c r="G5" s="3">
-        <v>0.0805</v>
+        <v>0.0791</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-2.4123</v>
       </c>
       <c r="C6" s="4">
-        <v>-1.8605</v>
+        <v>-2.0514</v>
       </c>
       <c r="D6" s="4">
-        <v>-1.8531</v>
+        <v>-2.0441</v>
       </c>
       <c r="E6" s="4">
-        <v>-1.8536</v>
+        <v>-2.0447</v>
       </c>
       <c r="F6" s="4">
-        <v>-1.8541</v>
+        <v>-2.0445</v>
       </c>
       <c r="G6" s="4">
-        <v>-1.8536</v>
+        <v>-2.0447</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.1454</v>
+        <v>-0.1519</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.1446</v>
+        <v>-0.1511</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.1446</v>
+        <v>-0.1511</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.1446</v>
+        <v>-0.151</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.1445</v>
+        <v>-0.151</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>5407.8537</v>
+        <v>5396.9416</v>
       </c>
       <c r="D8" s="1">
-        <v>5458.4875</v>
+        <v>5448.899</v>
       </c>
       <c r="E8" s="1">
-        <v>5459.3242</v>
+        <v>5449.7372</v>
       </c>
       <c r="F8" s="1">
-        <v>5460.1743</v>
+        <v>5450.7833</v>
       </c>
       <c r="G8" s="1">
-        <v>5461.2271</v>
+        <v>5450.1</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P66_KFSDIV.xlsx
+++ b/output/1Y_P66_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>6319.4464</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.8749</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.8744</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.8744</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.8744</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.8744</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
